--- a/ig/ch-epr-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T08:04:16+01:00</t>
+    <t>2023-06-27T18:08:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,9 +90,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of healthcare facility as per Annex 3; EPRO-FDHA.
-      This code describes the type of healthcare facility in which the document was compiled during the treatment process. In conjunction with the authorisation control, the patient can use this information to assign all documents from a specific type of healthcare facility to a specific confidentiality level in their rights and attributes, for example.
-    </t>
+    <t>Type of healthcare facility as per Annex 3; EPRO-FDHA.
+      This code describes the type of healthcare facility in which the document was compiled during the treatment process. In conjunction with the authorisation control, the patient can use this information to assign all documents from a specific type of healthcare facility to a specific confidentiality level in their rights and attributes, for example.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -201,6 +200,12 @@
   </si>
   <si>
     <t>Site of care (environment)</t>
+  </si>
+  <si>
+    <t>91154008</t>
+  </si>
+  <si>
+    <t>Free-standing birthing center (environment)</t>
   </si>
   <si>
     <t/>
@@ -331,10 +336,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -486,7 +491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -629,15 +634,23 @@
         <v>62</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.healthcareFacilityTypeCode.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.1.11 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.1.11 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
